--- a/1차_가공/한국과학기술원 22년 1학기 1차 가공 완료.xlsx
+++ b/1차_가공/한국과학기술원 22년 1학기 1차 가공 완료.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4369" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4406" uniqueCount="1135">
   <si>
     <t>대학교명</t>
   </si>
@@ -2546,6 +2546,9 @@
   </si>
   <si>
     <t>화 15:30~19:30, 화 14:30~15:30, 목 14:30~19:30</t>
+  </si>
+  <si>
+    <t>nan</t>
   </si>
   <si>
     <t>(E11)창의학습관501</t>
@@ -3851,8 +3854,11 @@
       <c r="L2" t="s">
         <v>733</v>
       </c>
+      <c r="M2" t="s">
+        <v>844</v>
+      </c>
       <c r="N2" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3886,8 +3892,11 @@
       <c r="L3" t="s">
         <v>734</v>
       </c>
+      <c r="M3" t="s">
+        <v>844</v>
+      </c>
       <c r="N3" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3921,8 +3930,11 @@
       <c r="L4" t="s">
         <v>733</v>
       </c>
+      <c r="M4" t="s">
+        <v>844</v>
+      </c>
       <c r="N4" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3956,8 +3968,11 @@
       <c r="L5" t="s">
         <v>735</v>
       </c>
+      <c r="M5" t="s">
+        <v>844</v>
+      </c>
       <c r="N5" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3991,8 +4006,11 @@
       <c r="L6" t="s">
         <v>736</v>
       </c>
+      <c r="M6" t="s">
+        <v>844</v>
+      </c>
       <c r="N6" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -4026,8 +4044,11 @@
       <c r="L7" t="s">
         <v>737</v>
       </c>
+      <c r="M7" t="s">
+        <v>844</v>
+      </c>
       <c r="N7" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4061,8 +4082,11 @@
       <c r="L8" t="s">
         <v>738</v>
       </c>
+      <c r="M8" t="s">
+        <v>844</v>
+      </c>
       <c r="N8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -4096,8 +4120,11 @@
       <c r="L9" t="s">
         <v>739</v>
       </c>
+      <c r="M9" t="s">
+        <v>844</v>
+      </c>
       <c r="N9" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4131,8 +4158,11 @@
       <c r="L10" t="s">
         <v>740</v>
       </c>
+      <c r="M10" t="s">
+        <v>844</v>
+      </c>
       <c r="N10" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4166,8 +4196,11 @@
       <c r="L11" t="s">
         <v>741</v>
       </c>
+      <c r="M11" t="s">
+        <v>844</v>
+      </c>
       <c r="N11" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4201,8 +4234,11 @@
       <c r="L12" t="s">
         <v>739</v>
       </c>
+      <c r="M12" t="s">
+        <v>844</v>
+      </c>
       <c r="N12" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4236,8 +4272,11 @@
       <c r="L13" t="s">
         <v>740</v>
       </c>
+      <c r="M13" t="s">
+        <v>844</v>
+      </c>
       <c r="N13" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4271,8 +4310,11 @@
       <c r="L14" t="s">
         <v>741</v>
       </c>
+      <c r="M14" t="s">
+        <v>844</v>
+      </c>
       <c r="N14" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -4306,8 +4348,11 @@
       <c r="L15" t="s">
         <v>742</v>
       </c>
+      <c r="M15" t="s">
+        <v>844</v>
+      </c>
       <c r="N15" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -4341,8 +4386,11 @@
       <c r="L16" t="s">
         <v>743</v>
       </c>
+      <c r="M16" t="s">
+        <v>844</v>
+      </c>
       <c r="N16" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -4376,8 +4424,11 @@
       <c r="L17" t="s">
         <v>744</v>
       </c>
+      <c r="M17" t="s">
+        <v>844</v>
+      </c>
       <c r="N17" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -4411,8 +4462,11 @@
       <c r="L18" t="s">
         <v>745</v>
       </c>
+      <c r="M18" t="s">
+        <v>844</v>
+      </c>
       <c r="N18" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -4446,8 +4500,11 @@
       <c r="L19" t="s">
         <v>746</v>
       </c>
+      <c r="M19" t="s">
+        <v>844</v>
+      </c>
       <c r="N19" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -4481,8 +4538,11 @@
       <c r="L20" t="s">
         <v>737</v>
       </c>
+      <c r="M20" t="s">
+        <v>844</v>
+      </c>
       <c r="N20" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -4516,8 +4576,11 @@
       <c r="L21" t="s">
         <v>745</v>
       </c>
+      <c r="M21" t="s">
+        <v>844</v>
+      </c>
       <c r="N21" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -4551,8 +4614,11 @@
       <c r="L22" t="s">
         <v>742</v>
       </c>
+      <c r="M22" t="s">
+        <v>844</v>
+      </c>
       <c r="N22" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -4586,8 +4652,11 @@
       <c r="L23" t="s">
         <v>743</v>
       </c>
+      <c r="M23" t="s">
+        <v>844</v>
+      </c>
       <c r="N23" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -4621,8 +4690,11 @@
       <c r="L24" t="s">
         <v>747</v>
       </c>
+      <c r="M24" t="s">
+        <v>844</v>
+      </c>
       <c r="N24" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -4656,8 +4728,11 @@
       <c r="L25" t="s">
         <v>742</v>
       </c>
+      <c r="M25" t="s">
+        <v>844</v>
+      </c>
       <c r="N25" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -4691,8 +4766,11 @@
       <c r="L26" t="s">
         <v>743</v>
       </c>
+      <c r="M26" t="s">
+        <v>844</v>
+      </c>
       <c r="N26" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -4726,8 +4804,11 @@
       <c r="L27" t="s">
         <v>747</v>
       </c>
+      <c r="M27" t="s">
+        <v>844</v>
+      </c>
       <c r="N27" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -4761,8 +4842,11 @@
       <c r="L28" t="s">
         <v>736</v>
       </c>
+      <c r="M28" t="s">
+        <v>844</v>
+      </c>
       <c r="N28" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -4796,8 +4880,11 @@
       <c r="L29" t="s">
         <v>737</v>
       </c>
+      <c r="M29" t="s">
+        <v>844</v>
+      </c>
       <c r="N29" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -4831,8 +4918,11 @@
       <c r="L30" t="s">
         <v>738</v>
       </c>
+      <c r="M30" t="s">
+        <v>844</v>
+      </c>
       <c r="N30" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -4866,8 +4956,11 @@
       <c r="L31" t="s">
         <v>747</v>
       </c>
+      <c r="M31" t="s">
+        <v>844</v>
+      </c>
       <c r="N31" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -4902,10 +4995,10 @@
         <v>748</v>
       </c>
       <c r="M32" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="N32" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -4940,10 +5033,10 @@
         <v>749</v>
       </c>
       <c r="M33" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="N33" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -4978,10 +5071,10 @@
         <v>750</v>
       </c>
       <c r="M34" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="N34" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -5015,8 +5108,11 @@
       <c r="L35" t="s">
         <v>751</v>
       </c>
+      <c r="M35" t="s">
+        <v>844</v>
+      </c>
       <c r="N35" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -5051,10 +5147,10 @@
         <v>752</v>
       </c>
       <c r="M36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="N36" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -5088,8 +5184,11 @@
       <c r="L37" t="s">
         <v>753</v>
       </c>
+      <c r="M37" t="s">
+        <v>844</v>
+      </c>
       <c r="N37" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -5124,10 +5223,10 @@
         <v>754</v>
       </c>
       <c r="M38" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="N38" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -5162,10 +5261,10 @@
         <v>755</v>
       </c>
       <c r="M39" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="N39" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -5200,10 +5299,10 @@
         <v>756</v>
       </c>
       <c r="M40" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="N40" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -5237,8 +5336,11 @@
       <c r="L41" t="s">
         <v>757</v>
       </c>
+      <c r="M41" t="s">
+        <v>844</v>
+      </c>
       <c r="N41" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -5273,10 +5375,10 @@
         <v>758</v>
       </c>
       <c r="M42" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="N42" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -5311,10 +5413,10 @@
         <v>758</v>
       </c>
       <c r="M43" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="N43" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -5349,10 +5451,10 @@
         <v>758</v>
       </c>
       <c r="M44" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N44" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -5387,10 +5489,10 @@
         <v>758</v>
       </c>
       <c r="M45" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="N45" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -5425,10 +5527,10 @@
         <v>759</v>
       </c>
       <c r="M46" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="N46" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -5463,10 +5565,10 @@
         <v>758</v>
       </c>
       <c r="M47" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="N47" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -5500,8 +5602,11 @@
       <c r="L48" t="s">
         <v>760</v>
       </c>
+      <c r="M48" t="s">
+        <v>844</v>
+      </c>
       <c r="N48" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -5536,10 +5641,10 @@
         <v>761</v>
       </c>
       <c r="M49" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N49" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -5574,10 +5679,10 @@
         <v>759</v>
       </c>
       <c r="M50" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="N50" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -5612,10 +5717,10 @@
         <v>762</v>
       </c>
       <c r="M51" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="N51" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -5650,10 +5755,10 @@
         <v>759</v>
       </c>
       <c r="M52" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="N52" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -5688,10 +5793,10 @@
         <v>763</v>
       </c>
       <c r="M53" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N53" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -5726,10 +5831,10 @@
         <v>758</v>
       </c>
       <c r="M54" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="N54" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -5764,10 +5869,10 @@
         <v>764</v>
       </c>
       <c r="M55" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="N55" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -5802,10 +5907,10 @@
         <v>759</v>
       </c>
       <c r="M56" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N56" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -5840,10 +5945,10 @@
         <v>765</v>
       </c>
       <c r="M57" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="N57" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -5878,10 +5983,10 @@
         <v>764</v>
       </c>
       <c r="M58" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="N58" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -5916,10 +6021,10 @@
         <v>766</v>
       </c>
       <c r="M59" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="N59" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -5954,10 +6059,10 @@
         <v>758</v>
       </c>
       <c r="M60" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="N60" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -5992,10 +6097,10 @@
         <v>762</v>
       </c>
       <c r="M61" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="N61" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -6030,10 +6135,10 @@
         <v>758</v>
       </c>
       <c r="M62" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="N62" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -6068,10 +6173,10 @@
         <v>762</v>
       </c>
       <c r="M63" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="N63" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -6106,10 +6211,10 @@
         <v>767</v>
       </c>
       <c r="M64" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="N64" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -6144,10 +6249,10 @@
         <v>755</v>
       </c>
       <c r="M65" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="N65" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -6182,10 +6287,10 @@
         <v>768</v>
       </c>
       <c r="M66" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N66" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -6220,10 +6325,10 @@
         <v>768</v>
       </c>
       <c r="M67" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N67" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -6258,10 +6363,10 @@
         <v>769</v>
       </c>
       <c r="M68" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N68" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -6296,10 +6401,10 @@
         <v>769</v>
       </c>
       <c r="M69" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N69" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -6334,10 +6439,10 @@
         <v>769</v>
       </c>
       <c r="M70" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N70" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -6372,10 +6477,10 @@
         <v>770</v>
       </c>
       <c r="M71" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N71" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -6410,10 +6515,10 @@
         <v>770</v>
       </c>
       <c r="M72" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N72" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -6448,10 +6553,10 @@
         <v>771</v>
       </c>
       <c r="M73" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N73" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -6486,10 +6591,10 @@
         <v>771</v>
       </c>
       <c r="M74" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N74" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -6524,10 +6629,10 @@
         <v>771</v>
       </c>
       <c r="M75" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N75" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -6562,10 +6667,10 @@
         <v>772</v>
       </c>
       <c r="M76" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="N76" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -6600,10 +6705,10 @@
         <v>772</v>
       </c>
       <c r="M77" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N77" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -6638,10 +6743,10 @@
         <v>772</v>
       </c>
       <c r="M78" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N78" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -6676,10 +6781,10 @@
         <v>773</v>
       </c>
       <c r="M79" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N79" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -6714,10 +6819,10 @@
         <v>774</v>
       </c>
       <c r="M80" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N80" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -6752,10 +6857,10 @@
         <v>774</v>
       </c>
       <c r="M81" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N81" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -6790,10 +6895,10 @@
         <v>775</v>
       </c>
       <c r="M82" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N82" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -6828,10 +6933,10 @@
         <v>775</v>
       </c>
       <c r="M83" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N83" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -6866,10 +6971,10 @@
         <v>776</v>
       </c>
       <c r="M84" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N84" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -6904,10 +7009,10 @@
         <v>776</v>
       </c>
       <c r="M85" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N85" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -6942,10 +7047,10 @@
         <v>776</v>
       </c>
       <c r="M86" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N86" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -6980,10 +7085,10 @@
         <v>777</v>
       </c>
       <c r="M87" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N87" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -7018,10 +7123,10 @@
         <v>777</v>
       </c>
       <c r="M88" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N88" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -7056,10 +7161,10 @@
         <v>777</v>
       </c>
       <c r="M89" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N89" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -7094,10 +7199,10 @@
         <v>778</v>
       </c>
       <c r="M90" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N90" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -7132,10 +7237,10 @@
         <v>754</v>
       </c>
       <c r="M91" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N91" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -7170,10 +7275,10 @@
         <v>779</v>
       </c>
       <c r="M92" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="N92" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -7208,10 +7313,10 @@
         <v>780</v>
       </c>
       <c r="M93" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="N93" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -7246,10 +7351,10 @@
         <v>781</v>
       </c>
       <c r="M94" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="N94" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -7284,10 +7389,10 @@
         <v>755</v>
       </c>
       <c r="M95" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="N95" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -7322,10 +7427,10 @@
         <v>780</v>
       </c>
       <c r="M96" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="N96" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -7360,10 +7465,10 @@
         <v>782</v>
       </c>
       <c r="M97" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="N97" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -7398,10 +7503,10 @@
         <v>783</v>
       </c>
       <c r="M98" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="N98" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -7436,10 +7541,10 @@
         <v>781</v>
       </c>
       <c r="M99" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="N99" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -7474,10 +7579,10 @@
         <v>755</v>
       </c>
       <c r="M100" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="N100" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -7512,10 +7617,10 @@
         <v>784</v>
       </c>
       <c r="M101" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="N101" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -7550,10 +7655,10 @@
         <v>781</v>
       </c>
       <c r="M102" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N102" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -7588,10 +7693,10 @@
         <v>755</v>
       </c>
       <c r="M103" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N103" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -7626,10 +7731,10 @@
         <v>784</v>
       </c>
       <c r="M104" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N104" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -7664,10 +7769,10 @@
         <v>781</v>
       </c>
       <c r="M105" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="N105" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -7702,10 +7807,10 @@
         <v>755</v>
       </c>
       <c r="M106" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="N106" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -7740,10 +7845,10 @@
         <v>785</v>
       </c>
       <c r="M107" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="N107" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -7778,10 +7883,10 @@
         <v>786</v>
       </c>
       <c r="M108" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="N108" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -7816,10 +7921,10 @@
         <v>739</v>
       </c>
       <c r="M109" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="N109" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -7854,10 +7959,10 @@
         <v>755</v>
       </c>
       <c r="M110" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="N110" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -7892,10 +7997,10 @@
         <v>781</v>
       </c>
       <c r="M111" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="N111" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -7930,10 +8035,10 @@
         <v>787</v>
       </c>
       <c r="M112" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="N112" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -7968,10 +8073,10 @@
         <v>788</v>
       </c>
       <c r="M113" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="N113" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -8006,10 +8111,10 @@
         <v>789</v>
       </c>
       <c r="M114" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="N114" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -8044,10 +8149,10 @@
         <v>790</v>
       </c>
       <c r="M115" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="N115" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -8082,10 +8187,10 @@
         <v>791</v>
       </c>
       <c r="M116" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="N116" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -8120,10 +8225,10 @@
         <v>792</v>
       </c>
       <c r="M117" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="N117" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -8158,10 +8263,10 @@
         <v>780</v>
       </c>
       <c r="M118" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="N118" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -8196,10 +8301,10 @@
         <v>758</v>
       </c>
       <c r="M119" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="N119" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -8234,10 +8339,10 @@
         <v>784</v>
       </c>
       <c r="M120" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="N120" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -8272,10 +8377,10 @@
         <v>781</v>
       </c>
       <c r="M121" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="N121" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -8310,10 +8415,10 @@
         <v>755</v>
       </c>
       <c r="M122" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="N122" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -8348,10 +8453,10 @@
         <v>784</v>
       </c>
       <c r="M123" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="N123" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -8386,10 +8491,10 @@
         <v>793</v>
       </c>
       <c r="M124" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="N124" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -8424,10 +8529,10 @@
         <v>793</v>
       </c>
       <c r="M125" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="N125" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -8462,10 +8567,10 @@
         <v>794</v>
       </c>
       <c r="M126" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="N126" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -8500,10 +8605,10 @@
         <v>795</v>
       </c>
       <c r="M127" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="N127" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -8538,10 +8643,10 @@
         <v>796</v>
       </c>
       <c r="M128" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="N128" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -8576,10 +8681,10 @@
         <v>796</v>
       </c>
       <c r="M129" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="N129" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -8614,10 +8719,10 @@
         <v>797</v>
       </c>
       <c r="M130" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="N130" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -8652,10 +8757,10 @@
         <v>795</v>
       </c>
       <c r="M131" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="N131" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -8690,10 +8795,10 @@
         <v>795</v>
       </c>
       <c r="M132" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="N132" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -8728,10 +8833,10 @@
         <v>798</v>
       </c>
       <c r="M133" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="N133" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -8766,10 +8871,10 @@
         <v>798</v>
       </c>
       <c r="M134" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="N134" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -8804,10 +8909,10 @@
         <v>798</v>
       </c>
       <c r="M135" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="N135" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -8842,10 +8947,10 @@
         <v>799</v>
       </c>
       <c r="M136" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="N136" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -8880,10 +8985,10 @@
         <v>799</v>
       </c>
       <c r="M137" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="N137" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -8918,10 +9023,10 @@
         <v>800</v>
       </c>
       <c r="M138" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="N138" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -8956,10 +9061,10 @@
         <v>800</v>
       </c>
       <c r="M139" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="N139" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -8994,10 +9099,10 @@
         <v>800</v>
       </c>
       <c r="M140" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="N140" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -9032,10 +9137,10 @@
         <v>800</v>
       </c>
       <c r="M141" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="N141" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -9070,10 +9175,10 @@
         <v>801</v>
       </c>
       <c r="M142" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="N142" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -9108,10 +9213,10 @@
         <v>801</v>
       </c>
       <c r="M143" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="N143" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -9146,10 +9251,10 @@
         <v>801</v>
       </c>
       <c r="M144" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="N144" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -9184,10 +9289,10 @@
         <v>802</v>
       </c>
       <c r="M145" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="N145" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -9222,10 +9327,10 @@
         <v>802</v>
       </c>
       <c r="M146" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="N146" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -9260,10 +9365,10 @@
         <v>802</v>
       </c>
       <c r="M147" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="N147" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -9298,10 +9403,10 @@
         <v>803</v>
       </c>
       <c r="M148" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="N148" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -9336,10 +9441,10 @@
         <v>803</v>
       </c>
       <c r="M149" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="N149" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -9374,10 +9479,10 @@
         <v>803</v>
       </c>
       <c r="M150" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="N150" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -9412,10 +9517,10 @@
         <v>797</v>
       </c>
       <c r="M151" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="N151" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -9450,10 +9555,10 @@
         <v>797</v>
       </c>
       <c r="M152" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="N152" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -9488,10 +9593,10 @@
         <v>797</v>
       </c>
       <c r="M153" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="N153" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -9526,10 +9631,10 @@
         <v>804</v>
       </c>
       <c r="M154" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="N154" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -9564,10 +9669,10 @@
         <v>804</v>
       </c>
       <c r="M155" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="N155" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -9602,10 +9707,10 @@
         <v>784</v>
       </c>
       <c r="M156" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="N156" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -9640,10 +9745,10 @@
         <v>780</v>
       </c>
       <c r="M157" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="N157" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -9677,8 +9782,11 @@
       <c r="L158" t="s">
         <v>755</v>
       </c>
+      <c r="M158" t="s">
+        <v>844</v>
+      </c>
       <c r="N158" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -9713,10 +9821,10 @@
         <v>805</v>
       </c>
       <c r="M159" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="N159" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -9751,10 +9859,10 @@
         <v>806</v>
       </c>
       <c r="M160" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="N160" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -9789,10 +9897,10 @@
         <v>806</v>
       </c>
       <c r="M161" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="N161" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -9827,10 +9935,10 @@
         <v>807</v>
       </c>
       <c r="M162" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="N162" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -9865,10 +9973,10 @@
         <v>808</v>
       </c>
       <c r="M163" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="N163" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -9903,10 +10011,10 @@
         <v>807</v>
       </c>
       <c r="M164" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N164" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -9941,10 +10049,10 @@
         <v>805</v>
       </c>
       <c r="M165" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="N165" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -9979,10 +10087,10 @@
         <v>805</v>
       </c>
       <c r="M166" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="N166" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -10017,10 +10125,10 @@
         <v>805</v>
       </c>
       <c r="M167" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N167" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -10055,10 +10163,10 @@
         <v>805</v>
       </c>
       <c r="M168" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="N168" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -10093,10 +10201,10 @@
         <v>809</v>
       </c>
       <c r="M169" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="N169" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -10131,10 +10239,10 @@
         <v>809</v>
       </c>
       <c r="M170" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="N170" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -10169,10 +10277,10 @@
         <v>809</v>
       </c>
       <c r="M171" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N171" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -10207,10 +10315,10 @@
         <v>809</v>
       </c>
       <c r="M172" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="N172" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -10245,10 +10353,10 @@
         <v>806</v>
       </c>
       <c r="M173" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="N173" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -10283,10 +10391,10 @@
         <v>806</v>
       </c>
       <c r="M174" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="N174" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -10321,10 +10429,10 @@
         <v>810</v>
       </c>
       <c r="M175" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="N175" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -10359,10 +10467,10 @@
         <v>810</v>
       </c>
       <c r="M176" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N176" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -10397,10 +10505,10 @@
         <v>810</v>
       </c>
       <c r="M177" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="N177" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -10435,10 +10543,10 @@
         <v>811</v>
       </c>
       <c r="M178" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="N178" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="179" spans="1:14">
@@ -10473,10 +10581,10 @@
         <v>811</v>
       </c>
       <c r="M179" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="N179" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="180" spans="1:14">
@@ -10511,10 +10619,10 @@
         <v>808</v>
       </c>
       <c r="M180" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="N180" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -10549,10 +10657,10 @@
         <v>808</v>
       </c>
       <c r="M181" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="N181" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -10587,10 +10695,10 @@
         <v>812</v>
       </c>
       <c r="M182" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="N182" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="183" spans="1:14">
@@ -10625,10 +10733,10 @@
         <v>812</v>
       </c>
       <c r="M183" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="N183" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="184" spans="1:14">
@@ -10663,10 +10771,10 @@
         <v>809</v>
       </c>
       <c r="M184" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="N184" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -10701,10 +10809,10 @@
         <v>811</v>
       </c>
       <c r="M185" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N185" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="186" spans="1:14">
@@ -10738,8 +10846,11 @@
       <c r="L186" t="s">
         <v>811</v>
       </c>
+      <c r="M186" t="s">
+        <v>844</v>
+      </c>
       <c r="N186" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="187" spans="1:14">
@@ -10774,10 +10885,10 @@
         <v>810</v>
       </c>
       <c r="M187" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="N187" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="188" spans="1:14">
@@ -10812,10 +10923,10 @@
         <v>805</v>
       </c>
       <c r="M188" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="N188" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -10847,10 +10958,10 @@
         <v>808</v>
       </c>
       <c r="M189" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="N189" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -10885,10 +10996,10 @@
         <v>777</v>
       </c>
       <c r="M190" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="N190" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -10923,10 +11034,10 @@
         <v>813</v>
       </c>
       <c r="M191" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="N191" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -10961,10 +11072,10 @@
         <v>813</v>
       </c>
       <c r="M192" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="N192" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -10999,10 +11110,10 @@
         <v>814</v>
       </c>
       <c r="M193" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="N193" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -11037,10 +11148,10 @@
         <v>814</v>
       </c>
       <c r="M194" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="N194" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -11075,10 +11186,10 @@
         <v>805</v>
       </c>
       <c r="M195" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="N195" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -11113,10 +11224,10 @@
         <v>805</v>
       </c>
       <c r="M196" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="N196" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -11151,10 +11262,10 @@
         <v>811</v>
       </c>
       <c r="M197" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="N197" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -11189,10 +11300,10 @@
         <v>811</v>
       </c>
       <c r="M198" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="N198" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -11227,10 +11338,10 @@
         <v>812</v>
       </c>
       <c r="M199" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="N199" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -11265,10 +11376,10 @@
         <v>812</v>
       </c>
       <c r="M200" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="N200" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -11303,10 +11414,10 @@
         <v>733</v>
       </c>
       <c r="M201" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="N201" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -11341,10 +11452,10 @@
         <v>815</v>
       </c>
       <c r="M202" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="N202" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -11379,10 +11490,10 @@
         <v>815</v>
       </c>
       <c r="M203" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="N203" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -11417,10 +11528,10 @@
         <v>807</v>
       </c>
       <c r="M204" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="N204" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -11455,10 +11566,10 @@
         <v>807</v>
       </c>
       <c r="M205" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="N205" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -11493,10 +11604,10 @@
         <v>816</v>
       </c>
       <c r="M206" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="N206" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -11531,10 +11642,10 @@
         <v>816</v>
       </c>
       <c r="M207" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="N207" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -11569,10 +11680,10 @@
         <v>816</v>
       </c>
       <c r="M208" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="N208" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -11607,10 +11718,10 @@
         <v>816</v>
       </c>
       <c r="M209" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="N209" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -11645,10 +11756,10 @@
         <v>816</v>
       </c>
       <c r="M210" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="N210" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -11683,10 +11794,10 @@
         <v>816</v>
       </c>
       <c r="M211" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="N211" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -11721,10 +11832,10 @@
         <v>809</v>
       </c>
       <c r="M212" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="N212" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="213" spans="1:14">
@@ -11759,10 +11870,10 @@
         <v>737</v>
       </c>
       <c r="M213" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="N213" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="214" spans="1:14">
@@ -11797,10 +11908,10 @@
         <v>737</v>
       </c>
       <c r="M214" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="N214" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -11835,10 +11946,10 @@
         <v>812</v>
       </c>
       <c r="M215" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="N215" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="216" spans="1:14">
@@ -11873,10 +11984,10 @@
         <v>800</v>
       </c>
       <c r="M216" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="N216" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -11911,10 +12022,10 @@
         <v>811</v>
       </c>
       <c r="M217" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="N217" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -11949,10 +12060,10 @@
         <v>817</v>
       </c>
       <c r="M218" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="N218" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -11987,10 +12098,10 @@
         <v>806</v>
       </c>
       <c r="M219" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="N219" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -12025,10 +12136,10 @@
         <v>818</v>
       </c>
       <c r="M220" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="N220" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -12063,10 +12174,10 @@
         <v>809</v>
       </c>
       <c r="M221" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="N221" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -12098,10 +12209,10 @@
         <v>817</v>
       </c>
       <c r="M222" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="N222" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -12136,10 +12247,10 @@
         <v>806</v>
       </c>
       <c r="M223" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="N223" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -12174,10 +12285,10 @@
         <v>807</v>
       </c>
       <c r="M224" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="N224" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -12212,10 +12323,10 @@
         <v>809</v>
       </c>
       <c r="M225" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="N225" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -12250,10 +12361,10 @@
         <v>819</v>
       </c>
       <c r="M226" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="N226" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -12288,10 +12399,10 @@
         <v>802</v>
       </c>
       <c r="M227" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="N227" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -12326,10 +12437,10 @@
         <v>797</v>
       </c>
       <c r="M228" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="N228" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -12364,10 +12475,10 @@
         <v>818</v>
       </c>
       <c r="M229" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="N229" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -12402,10 +12513,10 @@
         <v>796</v>
       </c>
       <c r="M230" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="N230" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -12440,10 +12551,10 @@
         <v>819</v>
       </c>
       <c r="M231" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="N231" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -12478,10 +12589,10 @@
         <v>819</v>
       </c>
       <c r="M232" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="N232" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -12516,10 +12627,10 @@
         <v>812</v>
       </c>
       <c r="M233" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="N233" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -12554,10 +12665,10 @@
         <v>809</v>
       </c>
       <c r="M234" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="N234" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -12592,10 +12703,10 @@
         <v>773</v>
       </c>
       <c r="M235" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="N235" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -12630,10 +12741,10 @@
         <v>820</v>
       </c>
       <c r="M236" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="N236" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -12668,10 +12779,10 @@
         <v>821</v>
       </c>
       <c r="M237" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="N237" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="238" spans="1:14">
@@ -12706,10 +12817,10 @@
         <v>809</v>
       </c>
       <c r="M238" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="N238" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -12744,10 +12855,10 @@
         <v>809</v>
       </c>
       <c r="M239" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="N239" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -12782,10 +12893,10 @@
         <v>812</v>
       </c>
       <c r="M240" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="N240" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -12816,8 +12927,11 @@
       <c r="L241" t="s">
         <v>812</v>
       </c>
+      <c r="M241" t="s">
+        <v>844</v>
+      </c>
       <c r="N241" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="242" spans="1:14">
@@ -12852,10 +12966,10 @@
         <v>812</v>
       </c>
       <c r="M242" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="N242" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -12890,10 +13004,10 @@
         <v>812</v>
       </c>
       <c r="M243" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="N243" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -12928,10 +13042,10 @@
         <v>812</v>
       </c>
       <c r="M244" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="N244" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -12966,10 +13080,10 @@
         <v>812</v>
       </c>
       <c r="M245" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="N245" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -13004,10 +13118,10 @@
         <v>812</v>
       </c>
       <c r="M246" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="N246" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -13042,10 +13156,10 @@
         <v>812</v>
       </c>
       <c r="M247" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="N247" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -13080,10 +13194,10 @@
         <v>811</v>
       </c>
       <c r="M248" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="N248" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -13118,10 +13232,10 @@
         <v>811</v>
       </c>
       <c r="M249" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="N249" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -13156,10 +13270,10 @@
         <v>805</v>
       </c>
       <c r="M250" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="N250" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -13194,10 +13308,10 @@
         <v>805</v>
       </c>
       <c r="M251" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="N251" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -13232,10 +13346,10 @@
         <v>807</v>
       </c>
       <c r="M252" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="N252" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -13270,10 +13384,10 @@
         <v>807</v>
       </c>
       <c r="M253" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="N253" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -13308,10 +13422,10 @@
         <v>808</v>
       </c>
       <c r="M254" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="N254" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="255" spans="1:14">
@@ -13346,10 +13460,10 @@
         <v>822</v>
       </c>
       <c r="M255" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="N255" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -13384,10 +13498,10 @@
         <v>808</v>
       </c>
       <c r="M256" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="N256" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -13422,10 +13536,10 @@
         <v>806</v>
       </c>
       <c r="M257" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="N257" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -13460,10 +13574,10 @@
         <v>807</v>
       </c>
       <c r="M258" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="N258" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -13498,10 +13612,10 @@
         <v>823</v>
       </c>
       <c r="M259" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="N259" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -13536,10 +13650,10 @@
         <v>773</v>
       </c>
       <c r="M260" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="N260" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -13574,10 +13688,10 @@
         <v>809</v>
       </c>
       <c r="M261" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="N261" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="262" spans="1:14">
@@ -13612,10 +13726,10 @@
         <v>811</v>
       </c>
       <c r="M262" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="N262" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="263" spans="1:14">
@@ -13650,10 +13764,10 @@
         <v>805</v>
       </c>
       <c r="M263" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="N263" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="264" spans="1:14">
@@ -13688,10 +13802,10 @@
         <v>824</v>
       </c>
       <c r="M264" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="N264" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="265" spans="1:14">
@@ -13726,10 +13840,10 @@
         <v>805</v>
       </c>
       <c r="M265" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="N265" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="266" spans="1:14">
@@ -13764,10 +13878,10 @@
         <v>812</v>
       </c>
       <c r="M266" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="N266" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="267" spans="1:14">
@@ -13802,10 +13916,10 @@
         <v>811</v>
       </c>
       <c r="M267" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="N267" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="268" spans="1:14">
@@ -13840,10 +13954,10 @@
         <v>808</v>
       </c>
       <c r="M268" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="N268" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="269" spans="1:14">
@@ -13878,10 +13992,10 @@
         <v>777</v>
       </c>
       <c r="M269" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="N269" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="270" spans="1:14">
@@ -13916,10 +14030,10 @@
         <v>809</v>
       </c>
       <c r="M270" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="N270" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="271" spans="1:14">
@@ -13954,10 +14068,10 @@
         <v>810</v>
       </c>
       <c r="M271" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="N271" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="272" spans="1:14">
@@ -13992,10 +14106,10 @@
         <v>811</v>
       </c>
       <c r="M272" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="N272" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="273" spans="1:14">
@@ -14030,10 +14144,10 @@
         <v>811</v>
       </c>
       <c r="M273" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="N273" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="274" spans="1:14">
@@ -14068,10 +14182,10 @@
         <v>811</v>
       </c>
       <c r="M274" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="N274" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="275" spans="1:14">
@@ -14106,10 +14220,10 @@
         <v>812</v>
       </c>
       <c r="M275" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="N275" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="276" spans="1:14">
@@ -14144,10 +14258,10 @@
         <v>812</v>
       </c>
       <c r="M276" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="N276" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="277" spans="1:14">
@@ -14182,10 +14296,10 @@
         <v>812</v>
       </c>
       <c r="M277" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="N277" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="278" spans="1:14">
@@ -14220,10 +14334,10 @@
         <v>812</v>
       </c>
       <c r="M278" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="N278" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="279" spans="1:14">
@@ -14255,10 +14369,10 @@
         <v>812</v>
       </c>
       <c r="M279" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="N279" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="280" spans="1:14">
@@ -14293,10 +14407,10 @@
         <v>812</v>
       </c>
       <c r="M280" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="N280" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="281" spans="1:14">
@@ -14331,10 +14445,10 @@
         <v>825</v>
       </c>
       <c r="M281" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="N281" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="282" spans="1:14">
@@ -14369,10 +14483,10 @@
         <v>825</v>
       </c>
       <c r="M282" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="N282" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="283" spans="1:14">
@@ -14407,10 +14521,10 @@
         <v>825</v>
       </c>
       <c r="M283" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="N283" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="284" spans="1:14">
@@ -14442,10 +14556,10 @@
         <v>825</v>
       </c>
       <c r="M284" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="N284" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="285" spans="1:14">
@@ -14480,10 +14594,10 @@
         <v>825</v>
       </c>
       <c r="M285" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="N285" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="286" spans="1:14">
@@ -14518,10 +14632,10 @@
         <v>811</v>
       </c>
       <c r="M286" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="N286" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="287" spans="1:14">
@@ -14556,10 +14670,10 @@
         <v>812</v>
       </c>
       <c r="M287" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="N287" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="288" spans="1:14">
@@ -14594,10 +14708,10 @@
         <v>805</v>
       </c>
       <c r="M288" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="N288" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="289" spans="1:14">
@@ -14632,10 +14746,10 @@
         <v>808</v>
       </c>
       <c r="M289" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="N289" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="290" spans="1:14">
@@ -14670,10 +14784,10 @@
         <v>805</v>
       </c>
       <c r="M290" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="N290" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="291" spans="1:14">
@@ -14708,10 +14822,10 @@
         <v>806</v>
       </c>
       <c r="M291" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="N291" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="292" spans="1:14">
@@ -14746,10 +14860,10 @@
         <v>809</v>
       </c>
       <c r="M292" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="N292" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="293" spans="1:14">
@@ -14784,10 +14898,10 @@
         <v>805</v>
       </c>
       <c r="M293" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="N293" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="294" spans="1:14">
@@ -14822,10 +14936,10 @@
         <v>809</v>
       </c>
       <c r="M294" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="N294" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="295" spans="1:14">
@@ -14860,10 +14974,10 @@
         <v>806</v>
       </c>
       <c r="M295" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="N295" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="296" spans="1:14">
@@ -14898,10 +15012,10 @@
         <v>812</v>
       </c>
       <c r="M296" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="N296" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="297" spans="1:14">
@@ -14936,10 +15050,10 @@
         <v>825</v>
       </c>
       <c r="M297" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="N297" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="298" spans="1:14">
@@ -14974,10 +15088,10 @@
         <v>811</v>
       </c>
       <c r="M298" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="N298" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="299" spans="1:14">
@@ -15012,10 +15126,10 @@
         <v>809</v>
       </c>
       <c r="M299" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="N299" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="300" spans="1:14">
@@ -15050,10 +15164,10 @@
         <v>806</v>
       </c>
       <c r="M300" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="N300" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="301" spans="1:14">
@@ -15088,10 +15202,10 @@
         <v>825</v>
       </c>
       <c r="M301" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="N301" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="302" spans="1:14">
@@ -15126,10 +15240,10 @@
         <v>812</v>
       </c>
       <c r="M302" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="N302" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="303" spans="1:14">
@@ -15164,10 +15278,10 @@
         <v>825</v>
       </c>
       <c r="M303" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="N303" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="304" spans="1:14">
@@ -15202,10 +15316,10 @@
         <v>825</v>
       </c>
       <c r="M304" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="N304" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="305" spans="1:14">
@@ -15240,10 +15354,10 @@
         <v>806</v>
       </c>
       <c r="M305" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="N305" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="306" spans="1:14">
@@ -15278,10 +15392,10 @@
         <v>811</v>
       </c>
       <c r="M306" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="N306" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="307" spans="1:14">
@@ -15316,10 +15430,10 @@
         <v>812</v>
       </c>
       <c r="M307" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="N307" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="308" spans="1:14">
@@ -15354,10 +15468,10 @@
         <v>825</v>
       </c>
       <c r="M308" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="N308" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="309" spans="1:14">
@@ -15392,10 +15506,10 @@
         <v>754</v>
       </c>
       <c r="M309" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="N309" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="310" spans="1:14">
@@ -15430,10 +15544,10 @@
         <v>808</v>
       </c>
       <c r="M310" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="N310" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="311" spans="1:14">
@@ -15468,10 +15582,10 @@
         <v>812</v>
       </c>
       <c r="M311" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="N311" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="312" spans="1:14">
@@ -15506,10 +15620,10 @@
         <v>805</v>
       </c>
       <c r="M312" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="N312" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="313" spans="1:14">
@@ -15544,10 +15658,10 @@
         <v>809</v>
       </c>
       <c r="M313" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="N313" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="314" spans="1:14">
@@ -15582,10 +15696,10 @@
         <v>812</v>
       </c>
       <c r="M314" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="N314" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="315" spans="1:14">
@@ -15620,10 +15734,10 @@
         <v>825</v>
       </c>
       <c r="M315" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="N315" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="316" spans="1:14">
@@ -15658,10 +15772,10 @@
         <v>809</v>
       </c>
       <c r="M316" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="N316" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="317" spans="1:14">
@@ -15696,10 +15810,10 @@
         <v>806</v>
       </c>
       <c r="M317" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="N317" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="318" spans="1:14">
@@ -15734,10 +15848,10 @@
         <v>809</v>
       </c>
       <c r="M318" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="N318" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="319" spans="1:14">
@@ -15772,10 +15886,10 @@
         <v>812</v>
       </c>
       <c r="M319" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="N319" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="320" spans="1:14">
@@ -15810,10 +15924,10 @@
         <v>812</v>
       </c>
       <c r="M320" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="N320" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="321" spans="1:14">
@@ -15848,10 +15962,10 @@
         <v>808</v>
       </c>
       <c r="M321" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="N321" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="322" spans="1:14">
@@ -15886,10 +16000,10 @@
         <v>812</v>
       </c>
       <c r="M322" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="N322" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="323" spans="1:14">
@@ -15924,10 +16038,10 @@
         <v>823</v>
       </c>
       <c r="M323" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="N323" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="324" spans="1:14">
@@ -15962,10 +16076,10 @@
         <v>807</v>
       </c>
       <c r="M324" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="N324" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="325" spans="1:14">
@@ -16000,10 +16114,10 @@
         <v>805</v>
       </c>
       <c r="M325" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="N325" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="326" spans="1:14">
@@ -16038,10 +16152,10 @@
         <v>806</v>
       </c>
       <c r="M326" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="N326" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="327" spans="1:14">
@@ -16076,10 +16190,10 @@
         <v>826</v>
       </c>
       <c r="M327" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="N327" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="328" spans="1:14">
@@ -16114,10 +16228,10 @@
         <v>777</v>
       </c>
       <c r="M328" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="N328" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="329" spans="1:14">
@@ -16152,10 +16266,10 @@
         <v>812</v>
       </c>
       <c r="M329" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="N329" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="330" spans="1:14">
@@ -16190,10 +16304,10 @@
         <v>806</v>
       </c>
       <c r="M330" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="N330" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="331" spans="1:14">
@@ -16228,10 +16342,10 @@
         <v>805</v>
       </c>
       <c r="M331" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="N331" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="332" spans="1:14">
@@ -16266,10 +16380,10 @@
         <v>825</v>
       </c>
       <c r="M332" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="N332" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="333" spans="1:14">
@@ -16304,10 +16418,10 @@
         <v>808</v>
       </c>
       <c r="M333" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="N333" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="334" spans="1:14">
@@ -16339,10 +16453,10 @@
         <v>825</v>
       </c>
       <c r="M334" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="N334" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="335" spans="1:14">
@@ -16377,10 +16491,10 @@
         <v>805</v>
       </c>
       <c r="M335" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="N335" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="336" spans="1:14">
@@ -16415,10 +16529,10 @@
         <v>827</v>
       </c>
       <c r="M336" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="N336" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="337" spans="1:14">
@@ -16453,10 +16567,10 @@
         <v>805</v>
       </c>
       <c r="M337" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="N337" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="338" spans="1:14">
@@ -16491,10 +16605,10 @@
         <v>811</v>
       </c>
       <c r="M338" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="N338" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="339" spans="1:14">
@@ -16529,10 +16643,10 @@
         <v>827</v>
       </c>
       <c r="M339" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="N339" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="340" spans="1:14">
@@ -16567,10 +16681,10 @@
         <v>828</v>
       </c>
       <c r="M340" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="N340" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="341" spans="1:14">
@@ -16605,10 +16719,10 @@
         <v>829</v>
       </c>
       <c r="M341" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="N341" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="342" spans="1:14">
@@ -16643,10 +16757,10 @@
         <v>827</v>
       </c>
       <c r="M342" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="N342" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="343" spans="1:14">
@@ -16681,10 +16795,10 @@
         <v>812</v>
       </c>
       <c r="M343" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="N343" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="344" spans="1:14">
@@ -16719,10 +16833,10 @@
         <v>809</v>
       </c>
       <c r="M344" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="N344" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="345" spans="1:14">
@@ -16757,10 +16871,10 @@
         <v>805</v>
       </c>
       <c r="M345" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="N345" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="346" spans="1:14">
@@ -16795,10 +16909,10 @@
         <v>811</v>
       </c>
       <c r="M346" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="N346" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="347" spans="1:14">
@@ -16833,10 +16947,10 @@
         <v>808</v>
       </c>
       <c r="M347" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="N347" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="348" spans="1:14">
@@ -16871,10 +16985,10 @@
         <v>809</v>
       </c>
       <c r="M348" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="N348" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="349" spans="1:14">
@@ -16909,10 +17023,10 @@
         <v>808</v>
       </c>
       <c r="M349" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="N349" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="350" spans="1:14">
@@ -16947,10 +17061,10 @@
         <v>776</v>
       </c>
       <c r="M350" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="N350" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="351" spans="1:14">
@@ -16985,10 +17099,10 @@
         <v>777</v>
       </c>
       <c r="M351" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="N351" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="352" spans="1:14">
@@ -17020,10 +17134,10 @@
         <v>811</v>
       </c>
       <c r="M352" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="N352" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="353" spans="1:14">
@@ -17058,10 +17172,10 @@
         <v>825</v>
       </c>
       <c r="M353" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="N353" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="354" spans="1:14">
@@ -17096,10 +17210,10 @@
         <v>825</v>
       </c>
       <c r="M354" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="N354" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="355" spans="1:14">
@@ -17134,10 +17248,10 @@
         <v>825</v>
       </c>
       <c r="M355" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="N355" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="356" spans="1:14">
@@ -17172,10 +17286,10 @@
         <v>807</v>
       </c>
       <c r="M356" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="N356" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="357" spans="1:14">
@@ -17210,10 +17324,10 @@
         <v>807</v>
       </c>
       <c r="M357" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="N357" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="358" spans="1:14">
@@ -17248,10 +17362,10 @@
         <v>808</v>
       </c>
       <c r="M358" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="N358" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="359" spans="1:14">
@@ -17286,10 +17400,10 @@
         <v>808</v>
       </c>
       <c r="M359" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="N359" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="360" spans="1:14">
@@ -17324,10 +17438,10 @@
         <v>805</v>
       </c>
       <c r="M360" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="N360" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="361" spans="1:14">
@@ -17362,10 +17476,10 @@
         <v>805</v>
       </c>
       <c r="M361" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="N361" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="362" spans="1:14">
@@ -17400,10 +17514,10 @@
         <v>806</v>
       </c>
       <c r="M362" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="N362" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="363" spans="1:14">
@@ -17438,10 +17552,10 @@
         <v>806</v>
       </c>
       <c r="M363" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="N363" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="364" spans="1:14">
@@ -17476,10 +17590,10 @@
         <v>806</v>
       </c>
       <c r="M364" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="N364" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="365" spans="1:14">
@@ -17514,10 +17628,10 @@
         <v>811</v>
       </c>
       <c r="M365" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="N365" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="366" spans="1:14">
@@ -17552,10 +17666,10 @@
         <v>811</v>
       </c>
       <c r="M366" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="N366" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="367" spans="1:14">
@@ -17590,10 +17704,10 @@
         <v>809</v>
       </c>
       <c r="M367" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="N367" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="368" spans="1:14">
@@ -17628,10 +17742,10 @@
         <v>809</v>
       </c>
       <c r="M368" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="N368" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="369" spans="1:14">
@@ -17666,10 +17780,10 @@
         <v>830</v>
       </c>
       <c r="M369" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="N369" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="370" spans="1:14">
@@ -17704,10 +17818,10 @@
         <v>830</v>
       </c>
       <c r="M370" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="N370" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="371" spans="1:14">
@@ -17742,10 +17856,10 @@
         <v>831</v>
       </c>
       <c r="M371" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="N371" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="372" spans="1:14">
@@ -17780,10 +17894,10 @@
         <v>831</v>
       </c>
       <c r="M372" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="N372" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="373" spans="1:14">
@@ -17818,10 +17932,10 @@
         <v>831</v>
       </c>
       <c r="M373" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="N373" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="374" spans="1:14">
@@ -17856,10 +17970,10 @@
         <v>808</v>
       </c>
       <c r="M374" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="N374" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="375" spans="1:14">
@@ -17894,10 +18008,10 @@
         <v>830</v>
       </c>
       <c r="M375" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="N375" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="376" spans="1:14">
@@ -17932,10 +18046,10 @@
         <v>830</v>
       </c>
       <c r="M376" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="N376" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="377" spans="1:14">
@@ -17970,10 +18084,10 @@
         <v>805</v>
       </c>
       <c r="M377" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="N377" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="378" spans="1:14">
@@ -18008,10 +18122,10 @@
         <v>809</v>
       </c>
       <c r="M378" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="N378" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="379" spans="1:14">
@@ -18046,10 +18160,10 @@
         <v>832</v>
       </c>
       <c r="M379" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="N379" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="380" spans="1:14">
@@ -18084,10 +18198,10 @@
         <v>811</v>
       </c>
       <c r="M380" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="N380" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="381" spans="1:14">
@@ -18122,10 +18236,10 @@
         <v>833</v>
       </c>
       <c r="M381" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="N381" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="382" spans="1:14">
@@ -18160,10 +18274,10 @@
         <v>812</v>
       </c>
       <c r="M382" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="N382" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="383" spans="1:14">
@@ -18198,10 +18312,10 @@
         <v>811</v>
       </c>
       <c r="M383" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="N383" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="384" spans="1:14">
@@ -18236,10 +18350,10 @@
         <v>811</v>
       </c>
       <c r="M384" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="N384" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="385" spans="1:14">
@@ -18274,10 +18388,10 @@
         <v>808</v>
       </c>
       <c r="M385" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="N385" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="386" spans="1:14">
@@ -18312,10 +18426,10 @@
         <v>810</v>
       </c>
       <c r="M386" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="N386" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="387" spans="1:14">
@@ -18350,10 +18464,10 @@
         <v>806</v>
       </c>
       <c r="M387" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="N387" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="388" spans="1:14">
@@ -18388,10 +18502,10 @@
         <v>807</v>
       </c>
       <c r="M388" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="N388" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="389" spans="1:14">
@@ -18426,10 +18540,10 @@
         <v>811</v>
       </c>
       <c r="M389" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="N389" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="390" spans="1:14">
@@ -18464,10 +18578,10 @@
         <v>809</v>
       </c>
       <c r="M390" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="N390" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="391" spans="1:14">
@@ -18502,10 +18616,10 @@
         <v>805</v>
       </c>
       <c r="M391" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="N391" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="392" spans="1:14">
@@ -18540,10 +18654,10 @@
         <v>808</v>
       </c>
       <c r="M392" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="N392" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="393" spans="1:14">
@@ -18578,10 +18692,10 @@
         <v>805</v>
       </c>
       <c r="M393" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="N393" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="394" spans="1:14">
@@ -18616,10 +18730,10 @@
         <v>812</v>
       </c>
       <c r="M394" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="N394" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="395" spans="1:14">
@@ -18654,10 +18768,10 @@
         <v>812</v>
       </c>
       <c r="M395" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="N395" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="396" spans="1:14">
@@ -18692,10 +18806,10 @@
         <v>812</v>
       </c>
       <c r="M396" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="N396" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="397" spans="1:14">
@@ -18730,10 +18844,10 @@
         <v>809</v>
       </c>
       <c r="M397" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="N397" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="398" spans="1:14">
@@ -18768,10 +18882,10 @@
         <v>805</v>
       </c>
       <c r="M398" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="N398" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="399" spans="1:14">
@@ -18806,10 +18920,10 @@
         <v>811</v>
       </c>
       <c r="M399" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="N399" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="400" spans="1:14">
@@ -18844,10 +18958,10 @@
         <v>805</v>
       </c>
       <c r="M400" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="N400" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="401" spans="1:14">
@@ -18882,10 +18996,10 @@
         <v>805</v>
       </c>
       <c r="M401" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="N401" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="402" spans="1:14">
@@ -18920,10 +19034,10 @@
         <v>805</v>
       </c>
       <c r="M402" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="N402" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="403" spans="1:14">
@@ -18958,10 +19072,10 @@
         <v>806</v>
       </c>
       <c r="M403" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="N403" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="404" spans="1:14">
@@ -18996,10 +19110,10 @@
         <v>806</v>
       </c>
       <c r="M404" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="N404" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="405" spans="1:14">
@@ -19034,10 +19148,10 @@
         <v>806</v>
       </c>
       <c r="M405" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="N405" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="406" spans="1:14">
@@ -19072,10 +19186,10 @@
         <v>817</v>
       </c>
       <c r="M406" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="N406" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="407" spans="1:14">
@@ -19110,10 +19224,10 @@
         <v>801</v>
       </c>
       <c r="M407" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="N407" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="408" spans="1:14">
@@ -19148,10 +19262,10 @@
         <v>834</v>
       </c>
       <c r="M408" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="N408" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="409" spans="1:14">
@@ -19186,10 +19300,10 @@
         <v>835</v>
       </c>
       <c r="M409" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="N409" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="410" spans="1:14">
@@ -19224,10 +19338,10 @@
         <v>802</v>
       </c>
       <c r="M410" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="N410" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="411" spans="1:14">
@@ -19262,10 +19376,10 @@
         <v>835</v>
       </c>
       <c r="M411" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="N411" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="412" spans="1:14">
@@ -19300,10 +19414,10 @@
         <v>802</v>
       </c>
       <c r="M412" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="N412" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="413" spans="1:14">
@@ -19338,10 +19452,10 @@
         <v>807</v>
       </c>
       <c r="M413" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="N413" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="414" spans="1:14">
@@ -19376,10 +19490,10 @@
         <v>835</v>
       </c>
       <c r="M414" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="N414" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="415" spans="1:14">
@@ -19414,10 +19528,10 @@
         <v>835</v>
       </c>
       <c r="M415" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="N415" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="416" spans="1:14">
@@ -19452,10 +19566,10 @@
         <v>802</v>
       </c>
       <c r="M416" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="N416" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="417" spans="1:14">
@@ -19490,10 +19604,10 @@
         <v>836</v>
       </c>
       <c r="M417" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="N417" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="418" spans="1:14">
@@ -19528,10 +19642,10 @@
         <v>836</v>
       </c>
       <c r="M418" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="N418" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="419" spans="1:14">
@@ -19566,10 +19680,10 @@
         <v>837</v>
       </c>
       <c r="M419" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="N419" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="420" spans="1:14">
@@ -19604,10 +19718,10 @@
         <v>837</v>
       </c>
       <c r="M420" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="N420" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="421" spans="1:14">
@@ -19642,10 +19756,10 @@
         <v>838</v>
       </c>
       <c r="M421" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="N421" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="422" spans="1:14">
@@ -19680,10 +19794,10 @@
         <v>839</v>
       </c>
       <c r="M422" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="N422" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="423" spans="1:14">
@@ -19718,10 +19832,10 @@
         <v>840</v>
       </c>
       <c r="M423" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="N423" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="424" spans="1:14">
@@ -19756,10 +19870,10 @@
         <v>840</v>
       </c>
       <c r="M424" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="N424" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="425" spans="1:14">
@@ -19794,10 +19908,10 @@
         <v>841</v>
       </c>
       <c r="M425" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="N425" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="426" spans="1:14">
@@ -19832,10 +19946,10 @@
         <v>841</v>
       </c>
       <c r="M426" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="N426" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="427" spans="1:14">
@@ -19870,10 +19984,10 @@
         <v>842</v>
       </c>
       <c r="M427" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="N427" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="428" spans="1:14">
@@ -19908,10 +20022,10 @@
         <v>781</v>
       </c>
       <c r="M428" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="N428" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="429" spans="1:14">
@@ -19946,10 +20060,10 @@
         <v>806</v>
       </c>
       <c r="M429" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="N429" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="430" spans="1:14">
@@ -19984,10 +20098,10 @@
         <v>806</v>
       </c>
       <c r="M430" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="N430" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="431" spans="1:14">
@@ -20022,10 +20136,10 @@
         <v>805</v>
       </c>
       <c r="M431" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="N431" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="432" spans="1:14">
@@ -20060,10 +20174,10 @@
         <v>806</v>
       </c>
       <c r="M432" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="N432" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="433" spans="1:14">
@@ -20098,10 +20212,10 @@
         <v>827</v>
       </c>
       <c r="M433" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="N433" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="434" spans="1:14">
@@ -20136,10 +20250,10 @@
         <v>825</v>
       </c>
       <c r="M434" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="N434" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="435" spans="1:14">
@@ -20174,10 +20288,10 @@
         <v>835</v>
       </c>
       <c r="M435" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="N435" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="436" spans="1:14">
@@ -20212,10 +20326,10 @@
         <v>802</v>
       </c>
       <c r="M436" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="N436" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="437" spans="1:14">
@@ -20250,10 +20364,10 @@
         <v>802</v>
       </c>
       <c r="M437" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="N437" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="438" spans="1:14">
@@ -20288,10 +20402,10 @@
         <v>778</v>
       </c>
       <c r="M438" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="N438" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="439" spans="1:14">
@@ -20326,10 +20440,10 @@
         <v>810</v>
       </c>
       <c r="M439" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="N439" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="440" spans="1:14">
@@ -20364,10 +20478,10 @@
         <v>810</v>
       </c>
       <c r="M440" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="N440" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="441" spans="1:14">
@@ -20402,10 +20516,10 @@
         <v>843</v>
       </c>
       <c r="M441" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="N441" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
   </sheetData>
